--- a/resultExcel.xlsx
+++ b/resultExcel.xlsx
@@ -6,18 +6,24 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="resultExcel" r:id="rId3" sheetId="1"/>
+    <sheet name="result" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>Domain</t>
+    <t>en.wikipedia.org</t>
   </si>
   <si>
-    <t>Status</t>
+    <t xml:space="preserve"> UP </t>
+  </si>
+  <si>
+    <t>200 = OK</t>
+  </si>
+  <si>
+    <t>NO RESULT</t>
   </si>
 </sst>
 </file>
@@ -65,18 +71,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A6:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="4.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.0703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.09765625" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B6" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
